--- a/examples/AutomationPracticeNew.xlsx
+++ b/examples/AutomationPracticeNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D8DB77-F039-FA43-AFD2-C214C03C0CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3108D4-81D2-9D4E-B938-B0718033475E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26560" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
   <si>
     <t>Activity</t>
   </si>
@@ -275,10 +275,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t>fritz6555675799@mailinator.com</t>
-  </si>
-  <si>
-    <t>fritzi762934711@mailinator.com</t>
+    <t>$(FAKER.email)</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1290,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1394,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3">
         <v>123456</v>
@@ -1419,9 +1416,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{13D34D25-6138-2A47-8DB7-29A76E560B55}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{39495B57-59DF-114A-A122-EB7EE186DCEB}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{DBBCFAF3-2E89-4E40-B327-E649D8C27403}"/>
+    <hyperlink ref="F2" r:id="rId2" display="fritz6555675799@mailinator.com" xr:uid="{13D34D25-6138-2A47-8DB7-29A76E560B55}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{DBBCFAF3-2E89-4E40-B327-E649D8C27403}"/>
+    <hyperlink ref="F3" r:id="rId4" display="fritz6555675799@mailinator.com" xr:uid="{5ADB4CFC-EA75-044F-B9BA-FCFD191E1D48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
